--- a/00_Document/03_Testing/Backend/01_テスト仕様書/管理者＿フード作成API＿テスト仕様書.xlsx
+++ b/00_Document/03_Testing/Backend/01_テスト仕様書/管理者＿フード作成API＿テスト仕様書.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E57D0C8-8019-4947-A0C4-250663E878A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92374BDB-D326-4278-B249-B4837D87A745}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="606" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="606" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="5" r:id="rId1"/>
@@ -89,7 +89,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="61">
   <si>
     <t>作成者</t>
     <rPh sb="0" eb="3">
@@ -295,13 +295,600 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">１．カテゴリーIDが空であること
-（リクエストボディーのcategoryのidが空になっていること）
-</t>
-  </si>
-  <si>
-    <r>
-      <t>１．レスポンスステータスが</t>
+    <t>リクエスト</t>
+  </si>
+  <si>
+    <t>リスポンス</t>
+  </si>
+  <si>
+    <t>{</t>
+  </si>
+  <si>
+    <r>
+      <t>    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"title"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF0451A5"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"ET"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"posterPath"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF0451A5"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"/media/jpg/1668916166_et.jpg"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"budget"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF098658"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>2000</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"trailerPath"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF0451A5"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"/media/jpg/1668916166_Rainbow_Flare_Nebula_4K_Motion_Background.mp4"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"overview"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF0451A5"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"OverViewOverViewOverViewOverViewOverViewOverView"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"category"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>: {</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"id"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF098658"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>1</t>
+    </r>
+  </si>
+  <si>
+    <t>    },</t>
+  </si>
+  <si>
+    <r>
+      <t>    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"adult"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color rgb="FF0451A5"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>true</t>
+    </r>
+  </si>
+  <si>
+    <t>}</t>
+  </si>
+  <si>
+    <r>
+      <t>    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"id"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF098658"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"homePage"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color rgb="FF0451A5"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>null</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"id"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF098658"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"name"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color rgb="FF0451A5"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>null</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"adult"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color rgb="FF0451A5"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>true</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"createdAt"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF0451A5"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"2022-11-26T10:05:09.631"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"updatedAt"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color rgb="FF0451A5"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>null</t>
+    </r>
+  </si>
+  <si>
+    <t>エイ</t>
+  </si>
+  <si>
+    <t>フード作成 (001)</t>
+  </si>
+  <si>
+    <t>フード</t>
+  </si>
+  <si>
+    <r>
+      <t>１．フードが作成されること
+２．データベースにフード作成されること
+３．レスポンスステータスが</t>
     </r>
     <r>
       <rPr>
@@ -310,7 +897,7 @@
         <rFont val="ＭＳ Ｐゴシック"/>
         <charset val="128"/>
       </rPr>
-      <t>４００</t>
+      <t>２００</t>
     </r>
     <r>
       <rPr>
@@ -319,621 +906,17 @@
         <family val="3"/>
         <charset val="128"/>
       </rPr>
-      <t xml:space="preserve">であること
-２．レスポンスボディーが【Category ID is invalid】であること
-</t>
-    </r>
-  </si>
-  <si>
-    <t>01_001_001</t>
-  </si>
-  <si>
-    <t>01_001_002</t>
-  </si>
-  <si>
-    <t>01_001_003</t>
-  </si>
-  <si>
-    <t>01_001_004</t>
-  </si>
-  <si>
-    <t>01_001_005</t>
-  </si>
-  <si>
-    <t>リクエスト</t>
-  </si>
-  <si>
-    <t>リスポンス</t>
-  </si>
-  <si>
-    <t>{</t>
-  </si>
-  <si>
-    <r>
-      <t>    </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FFA31515"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>"title"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FF0451A5"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>"ET"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>,</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>    </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FFA31515"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>"posterPath"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FF0451A5"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>"/media/jpg/1668916166_et.jpg"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>,</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>    </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FFA31515"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>"budget"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FF098658"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>2000</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>,</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>    </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FFA31515"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>"trailerPath"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FF0451A5"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>"/media/jpg/1668916166_Rainbow_Flare_Nebula_4K_Motion_Background.mp4"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>,</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>    </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FFA31515"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>"overview"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FF0451A5"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>"OverViewOverViewOverViewOverViewOverViewOverView"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>,</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>    </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FFA31515"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>"category"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>: {</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>        </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FFA31515"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>"id"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FF098658"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>1</t>
-    </r>
-  </si>
-  <si>
-    <t>    },</t>
-  </si>
-  <si>
-    <r>
-      <t>    </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FFA31515"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>"adult"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="8"/>
-        <color rgb="FF0451A5"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>true</t>
-    </r>
-  </si>
-  <si>
-    <t>}</t>
-  </si>
-  <si>
-    <r>
-      <t>    </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FFA31515"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>"id"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FF098658"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>,</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>    </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FFA31515"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>"homePage"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="8"/>
-        <color rgb="FF0451A5"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>null</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>,</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>        </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FFA31515"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>"id"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FF098658"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>,</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>        </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FFA31515"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>"name"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="8"/>
-        <color rgb="FF0451A5"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>null</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>    </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FFA31515"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>"adult"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="8"/>
-        <color rgb="FF0451A5"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>true</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>,</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>    </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FFA31515"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>"createdAt"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FF0451A5"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>"2022-11-26T10:05:09.631"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>,</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>    </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FFA31515"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>"updatedAt"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="8"/>
-        <color rgb="FF0451A5"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>null</t>
-    </r>
-  </si>
-  <si>
-    <t>エイ</t>
-  </si>
-  <si>
-    <t>フード作成 (001)</t>
-  </si>
-  <si>
-    <t>フード</t>
-  </si>
-  <si>
-    <r>
-      <t>１．フードが作成されること
-２．データベースにフード作成されること
-３．レスポンスステータスが</t>
+      <t>であること
+４．レスポンスボディーに作成されたフードが返すこと</t>
+    </r>
+  </si>
+  <si>
+    <t>１．イメージが存在しないこと　
+（リクエストボディーのimageに入れるイメージがサーバー上存在しないこと）</t>
+  </si>
+  <si>
+    <r>
+      <t>１．レスポンスステータスが</t>
     </r>
     <r>
       <rPr>
@@ -942,34 +925,6 @@
         <rFont val="ＭＳ Ｐゴシック"/>
         <charset val="128"/>
       </rPr>
-      <t>２００</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>であること
-４．レスポンスボディーに作成されたフードが返すこと</t>
-    </r>
-  </si>
-  <si>
-    <t>１．イメージが存在しないこと　
-（リクエストボディーのimageに入れるイメージがサーバー上存在しないこと）</t>
-  </si>
-  <si>
-    <r>
-      <t>１．レスポンスステータスが</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <charset val="128"/>
-      </rPr>
       <t>４００</t>
     </r>
     <r>
@@ -989,11 +944,6 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">１．イメージが空であること
-（リクエストボディーのimageが空になっていること）
-</t>
-  </si>
-  <si>
     <t>リクエストヘッダー</t>
   </si>
   <si>
@@ -1003,6 +953,15 @@
     <t xml:space="preserve">１．すべてのデータ入力
 2．イメージが存在すること
 </t>
+  </si>
+  <si>
+    <t>01_001_001_01</t>
+  </si>
+  <si>
+    <t>01_001_001_02</t>
+  </si>
+  <si>
+    <t>01_001_001_03</t>
   </si>
 </sst>
 </file>
@@ -1468,18 +1427,108 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -1498,96 +1547,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -1595,13 +1554,13 @@
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2232,6 +2191,182 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>161926</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>522048</xdr:colOff>
+      <xdr:row>96</xdr:row>
+      <xdr:rowOff>161926</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{748A0AD9-01DC-17BE-6AE7-F8475C72AB67}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="457200" y="16563976"/>
+          <a:ext cx="7494348" cy="2800350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>208029</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>171451</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>532273</xdr:colOff>
+      <xdr:row>96</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7A888419-34E2-1ACD-537B-2BAA4698D230}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8256654" y="16573501"/>
+          <a:ext cx="5896369" cy="2705099"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>101</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>481561</xdr:colOff>
+      <xdr:row>115</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BB4A947F-0278-B9B2-745C-A4A96D4D9327}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="419100" y="20212050"/>
+          <a:ext cx="8111086" cy="2838450"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>101</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>341774</xdr:colOff>
+      <xdr:row>120</xdr:row>
+      <xdr:rowOff>75715</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C897FC3D-B4C5-4E15-CBC1-F792DB20573B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8667750" y="20202525"/>
+          <a:ext cx="9009524" cy="3876190"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -2670,7 +2805,7 @@
       <c r="N18" s="11"/>
       <c r="O18" s="11"/>
       <c r="P18" s="15" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="Q18" s="15"/>
       <c r="R18" s="15"/>
@@ -2727,780 +2862,764 @@
   <sheetPr>
     <tabColor theme="7" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:BM24"/>
+  <dimension ref="A1:BM22"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="T6" sqref="T6:AH6"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="X1" sqref="X1:AT2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="16.149999999999999" customHeight="1"/>
   <cols>
-    <col min="1" max="62" width="2.5703125" style="1" customWidth="1"/>
+    <col min="1" max="3" width="2.5703125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="4.42578125" style="1" customWidth="1"/>
+    <col min="5" max="62" width="2.5703125" style="1" customWidth="1"/>
     <col min="63" max="16384" width="8.7109375" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:65" ht="16.149999999999999" customHeight="1">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
-      <c r="I1" s="33"/>
-      <c r="J1" s="33"/>
-      <c r="K1" s="33"/>
-      <c r="L1" s="33"/>
-      <c r="M1" s="33"/>
-      <c r="N1" s="33"/>
-      <c r="O1" s="33"/>
-      <c r="P1" s="33"/>
-      <c r="Q1" s="33"/>
-      <c r="R1" s="37" t="s">
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="19"/>
+      <c r="K1" s="19"/>
+      <c r="L1" s="19"/>
+      <c r="M1" s="19"/>
+      <c r="N1" s="19"/>
+      <c r="O1" s="19"/>
+      <c r="P1" s="19"/>
+      <c r="Q1" s="19"/>
+      <c r="R1" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="S1" s="37"/>
-      <c r="T1" s="37"/>
-      <c r="U1" s="37"/>
-      <c r="V1" s="37"/>
-      <c r="W1" s="37"/>
-      <c r="X1" s="39" t="s">
-        <v>56</v>
-      </c>
-      <c r="Y1" s="40"/>
-      <c r="Z1" s="40"/>
-      <c r="AA1" s="40"/>
-      <c r="AB1" s="40"/>
-      <c r="AC1" s="40"/>
-      <c r="AD1" s="40"/>
-      <c r="AE1" s="40"/>
-      <c r="AF1" s="40"/>
-      <c r="AG1" s="40"/>
-      <c r="AH1" s="40"/>
-      <c r="AI1" s="40"/>
-      <c r="AJ1" s="40"/>
-      <c r="AK1" s="40"/>
-      <c r="AL1" s="40"/>
-      <c r="AM1" s="40"/>
-      <c r="AN1" s="40"/>
-      <c r="AO1" s="40"/>
-      <c r="AP1" s="40"/>
-      <c r="AQ1" s="40"/>
-      <c r="AR1" s="40"/>
-      <c r="AS1" s="40"/>
-      <c r="AT1" s="41"/>
-      <c r="AU1" s="45" t="s">
+      <c r="S1" s="23"/>
+      <c r="T1" s="23"/>
+      <c r="U1" s="23"/>
+      <c r="V1" s="23"/>
+      <c r="W1" s="23"/>
+      <c r="X1" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y1" s="26"/>
+      <c r="Z1" s="26"/>
+      <c r="AA1" s="26"/>
+      <c r="AB1" s="26"/>
+      <c r="AC1" s="26"/>
+      <c r="AD1" s="26"/>
+      <c r="AE1" s="26"/>
+      <c r="AF1" s="26"/>
+      <c r="AG1" s="26"/>
+      <c r="AH1" s="26"/>
+      <c r="AI1" s="26"/>
+      <c r="AJ1" s="26"/>
+      <c r="AK1" s="26"/>
+      <c r="AL1" s="26"/>
+      <c r="AM1" s="26"/>
+      <c r="AN1" s="26"/>
+      <c r="AO1" s="26"/>
+      <c r="AP1" s="26"/>
+      <c r="AQ1" s="26"/>
+      <c r="AR1" s="26"/>
+      <c r="AS1" s="26"/>
+      <c r="AT1" s="27"/>
+      <c r="AU1" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="AV1" s="46"/>
-      <c r="AW1" s="47"/>
-      <c r="AX1" s="51">
+      <c r="AV1" s="32"/>
+      <c r="AW1" s="33"/>
+      <c r="AX1" s="37">
         <v>44938</v>
       </c>
-      <c r="AY1" s="52"/>
-      <c r="AZ1" s="52"/>
-      <c r="BA1" s="52"/>
-      <c r="BB1" s="52"/>
-      <c r="BC1" s="53"/>
+      <c r="AY1" s="38"/>
+      <c r="AZ1" s="38"/>
+      <c r="BA1" s="38"/>
+      <c r="BB1" s="38"/>
+      <c r="BC1" s="39"/>
       <c r="BD1" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="BE1" s="46"/>
-      <c r="BF1" s="47"/>
-      <c r="BG1" s="21" t="s">
-        <v>55</v>
-      </c>
-      <c r="BH1" s="22"/>
-      <c r="BI1" s="22"/>
-      <c r="BJ1" s="23"/>
+      <c r="BE1" s="32"/>
+      <c r="BF1" s="33"/>
+      <c r="BG1" s="51" t="s">
+        <v>48</v>
+      </c>
+      <c r="BH1" s="52"/>
+      <c r="BI1" s="52"/>
+      <c r="BJ1" s="53"/>
     </row>
     <row r="2" spans="1:65" ht="16.149999999999999" customHeight="1" thickBot="1">
-      <c r="A2" s="34"/>
-      <c r="B2" s="35"/>
-      <c r="C2" s="35"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36"/>
-      <c r="G2" s="36"/>
-      <c r="H2" s="36"/>
-      <c r="I2" s="36"/>
-      <c r="J2" s="36"/>
-      <c r="K2" s="36"/>
-      <c r="L2" s="36"/>
-      <c r="M2" s="36"/>
-      <c r="N2" s="36"/>
-      <c r="O2" s="36"/>
-      <c r="P2" s="36"/>
-      <c r="Q2" s="36"/>
-      <c r="R2" s="38"/>
-      <c r="S2" s="38"/>
-      <c r="T2" s="38"/>
-      <c r="U2" s="38"/>
-      <c r="V2" s="38"/>
-      <c r="W2" s="38"/>
-      <c r="X2" s="42"/>
-      <c r="Y2" s="43"/>
-      <c r="Z2" s="43"/>
-      <c r="AA2" s="43"/>
-      <c r="AB2" s="43"/>
-      <c r="AC2" s="43"/>
-      <c r="AD2" s="43"/>
-      <c r="AE2" s="43"/>
-      <c r="AF2" s="43"/>
-      <c r="AG2" s="43"/>
-      <c r="AH2" s="43"/>
-      <c r="AI2" s="43"/>
-      <c r="AJ2" s="43"/>
-      <c r="AK2" s="43"/>
-      <c r="AL2" s="43"/>
-      <c r="AM2" s="43"/>
-      <c r="AN2" s="43"/>
-      <c r="AO2" s="43"/>
-      <c r="AP2" s="43"/>
-      <c r="AQ2" s="43"/>
-      <c r="AR2" s="43"/>
-      <c r="AS2" s="43"/>
-      <c r="AT2" s="44"/>
-      <c r="AU2" s="48"/>
-      <c r="AV2" s="49"/>
-      <c r="AW2" s="50"/>
-      <c r="AX2" s="54"/>
-      <c r="AY2" s="55"/>
-      <c r="AZ2" s="55"/>
-      <c r="BA2" s="55"/>
-      <c r="BB2" s="55"/>
-      <c r="BC2" s="56"/>
+      <c r="A2" s="20"/>
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="22"/>
+      <c r="J2" s="22"/>
+      <c r="K2" s="22"/>
+      <c r="L2" s="22"/>
+      <c r="M2" s="22"/>
+      <c r="N2" s="22"/>
+      <c r="O2" s="22"/>
+      <c r="P2" s="22"/>
+      <c r="Q2" s="22"/>
+      <c r="R2" s="24"/>
+      <c r="S2" s="24"/>
+      <c r="T2" s="24"/>
+      <c r="U2" s="24"/>
+      <c r="V2" s="24"/>
+      <c r="W2" s="24"/>
+      <c r="X2" s="28"/>
+      <c r="Y2" s="29"/>
+      <c r="Z2" s="29"/>
+      <c r="AA2" s="29"/>
+      <c r="AB2" s="29"/>
+      <c r="AC2" s="29"/>
+      <c r="AD2" s="29"/>
+      <c r="AE2" s="29"/>
+      <c r="AF2" s="29"/>
+      <c r="AG2" s="29"/>
+      <c r="AH2" s="29"/>
+      <c r="AI2" s="29"/>
+      <c r="AJ2" s="29"/>
+      <c r="AK2" s="29"/>
+      <c r="AL2" s="29"/>
+      <c r="AM2" s="29"/>
+      <c r="AN2" s="29"/>
+      <c r="AO2" s="29"/>
+      <c r="AP2" s="29"/>
+      <c r="AQ2" s="29"/>
+      <c r="AR2" s="29"/>
+      <c r="AS2" s="29"/>
+      <c r="AT2" s="30"/>
+      <c r="AU2" s="34"/>
+      <c r="AV2" s="35"/>
+      <c r="AW2" s="36"/>
+      <c r="AX2" s="40"/>
+      <c r="AY2" s="41"/>
+      <c r="AZ2" s="41"/>
+      <c r="BA2" s="41"/>
+      <c r="BB2" s="41"/>
+      <c r="BC2" s="42"/>
       <c r="BD2" s="58"/>
-      <c r="BE2" s="49"/>
-      <c r="BF2" s="50"/>
-      <c r="BG2" s="24"/>
-      <c r="BH2" s="25"/>
-      <c r="BI2" s="25"/>
-      <c r="BJ2" s="26"/>
+      <c r="BE2" s="35"/>
+      <c r="BF2" s="36"/>
+      <c r="BG2" s="54"/>
+      <c r="BH2" s="55"/>
+      <c r="BI2" s="55"/>
+      <c r="BJ2" s="56"/>
     </row>
     <row r="3" spans="1:65" ht="8.1" customHeight="1"/>
     <row r="4" spans="1:65" s="2" customFormat="1" ht="16.149999999999999" customHeight="1">
-      <c r="A4" s="27" t="s">
+      <c r="A4" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="27"/>
-      <c r="C4" s="27"/>
-      <c r="D4" s="27"/>
-      <c r="E4" s="27" t="s">
+      <c r="B4" s="43"/>
+      <c r="C4" s="43"/>
+      <c r="D4" s="43"/>
+      <c r="E4" s="43" t="s">
         <v>19</v>
       </c>
-      <c r="F4" s="27"/>
-      <c r="G4" s="27"/>
-      <c r="H4" s="27"/>
-      <c r="I4" s="27"/>
-      <c r="J4" s="28" t="s">
+      <c r="F4" s="43"/>
+      <c r="G4" s="43"/>
+      <c r="H4" s="43"/>
+      <c r="I4" s="43"/>
+      <c r="J4" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="K4" s="29"/>
-      <c r="L4" s="29"/>
-      <c r="M4" s="29"/>
-      <c r="N4" s="29"/>
-      <c r="O4" s="29"/>
-      <c r="P4" s="29"/>
-      <c r="Q4" s="29"/>
-      <c r="R4" s="29"/>
-      <c r="S4" s="30"/>
-      <c r="T4" s="27" t="s">
+      <c r="K4" s="45"/>
+      <c r="L4" s="45"/>
+      <c r="M4" s="45"/>
+      <c r="N4" s="45"/>
+      <c r="O4" s="45"/>
+      <c r="P4" s="45"/>
+      <c r="Q4" s="45"/>
+      <c r="R4" s="45"/>
+      <c r="S4" s="46"/>
+      <c r="T4" s="43" t="s">
         <v>20</v>
       </c>
-      <c r="U4" s="27"/>
-      <c r="V4" s="27"/>
-      <c r="W4" s="27"/>
-      <c r="X4" s="27"/>
-      <c r="Y4" s="27"/>
-      <c r="Z4" s="27"/>
-      <c r="AA4" s="27"/>
-      <c r="AB4" s="27"/>
-      <c r="AC4" s="27"/>
-      <c r="AD4" s="27"/>
-      <c r="AE4" s="27"/>
-      <c r="AF4" s="27"/>
-      <c r="AG4" s="27"/>
-      <c r="AH4" s="27"/>
-      <c r="AI4" s="27" t="s">
+      <c r="U4" s="43"/>
+      <c r="V4" s="43"/>
+      <c r="W4" s="43"/>
+      <c r="X4" s="43"/>
+      <c r="Y4" s="43"/>
+      <c r="Z4" s="43"/>
+      <c r="AA4" s="43"/>
+      <c r="AB4" s="43"/>
+      <c r="AC4" s="43"/>
+      <c r="AD4" s="43"/>
+      <c r="AE4" s="43"/>
+      <c r="AF4" s="43"/>
+      <c r="AG4" s="43"/>
+      <c r="AH4" s="43"/>
+      <c r="AI4" s="43" t="s">
         <v>21</v>
       </c>
-      <c r="AJ4" s="27"/>
-      <c r="AK4" s="27"/>
-      <c r="AL4" s="27"/>
-      <c r="AM4" s="27"/>
-      <c r="AN4" s="27"/>
-      <c r="AO4" s="27"/>
-      <c r="AP4" s="27"/>
-      <c r="AQ4" s="27"/>
-      <c r="AR4" s="27"/>
-      <c r="AS4" s="27"/>
-      <c r="AT4" s="27"/>
-      <c r="AU4" s="27"/>
-      <c r="AV4" s="27"/>
-      <c r="AW4" s="27"/>
-      <c r="AX4" s="27" t="s">
+      <c r="AJ4" s="43"/>
+      <c r="AK4" s="43"/>
+      <c r="AL4" s="43"/>
+      <c r="AM4" s="43"/>
+      <c r="AN4" s="43"/>
+      <c r="AO4" s="43"/>
+      <c r="AP4" s="43"/>
+      <c r="AQ4" s="43"/>
+      <c r="AR4" s="43"/>
+      <c r="AS4" s="43"/>
+      <c r="AT4" s="43"/>
+      <c r="AU4" s="43"/>
+      <c r="AV4" s="43"/>
+      <c r="AW4" s="43"/>
+      <c r="AX4" s="43" t="s">
         <v>11</v>
       </c>
-      <c r="AY4" s="27"/>
-      <c r="AZ4" s="27"/>
-      <c r="BA4" s="27" t="s">
+      <c r="AY4" s="43"/>
+      <c r="AZ4" s="43"/>
+      <c r="BA4" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="BB4" s="27"/>
-      <c r="BC4" s="27"/>
-      <c r="BD4" s="27" t="s">
+      <c r="BB4" s="43"/>
+      <c r="BC4" s="43"/>
+      <c r="BD4" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="BE4" s="27"/>
-      <c r="BF4" s="27" t="s">
+      <c r="BE4" s="43"/>
+      <c r="BF4" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="BG4" s="27"/>
-      <c r="BH4" s="27"/>
-      <c r="BI4" s="27" t="s">
+      <c r="BG4" s="43"/>
+      <c r="BH4" s="43"/>
+      <c r="BI4" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="BJ4" s="27"/>
+      <c r="BJ4" s="43"/>
     </row>
     <row r="5" spans="1:65" ht="72" customHeight="1">
-      <c r="A5" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="B5" s="17"/>
-      <c r="C5" s="17"/>
-      <c r="D5" s="17"/>
-      <c r="E5" s="19" t="s">
+      <c r="A5" s="50" t="s">
+        <v>58</v>
+      </c>
+      <c r="B5" s="50"/>
+      <c r="C5" s="50"/>
+      <c r="D5" s="50"/>
+      <c r="E5" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="F5" s="19"/>
-      <c r="G5" s="19"/>
-      <c r="H5" s="19"/>
-      <c r="I5" s="19"/>
-      <c r="J5" s="19" t="s">
+      <c r="F5" s="47"/>
+      <c r="G5" s="47"/>
+      <c r="H5" s="47"/>
+      <c r="I5" s="47"/>
+      <c r="J5" s="47" t="s">
+        <v>50</v>
+      </c>
+      <c r="K5" s="47"/>
+      <c r="L5" s="47"/>
+      <c r="M5" s="47"/>
+      <c r="N5" s="47"/>
+      <c r="O5" s="47" t="s">
+        <v>23</v>
+      </c>
+      <c r="P5" s="47"/>
+      <c r="Q5" s="47"/>
+      <c r="R5" s="47"/>
+      <c r="S5" s="47"/>
+      <c r="T5" s="47" t="s">
         <v>57</v>
       </c>
-      <c r="K5" s="19"/>
-      <c r="L5" s="19"/>
-      <c r="M5" s="19"/>
-      <c r="N5" s="19"/>
-      <c r="O5" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="P5" s="19"/>
-      <c r="Q5" s="19"/>
-      <c r="R5" s="19"/>
-      <c r="S5" s="19"/>
-      <c r="T5" s="19" t="s">
-        <v>65</v>
-      </c>
-      <c r="U5" s="19"/>
-      <c r="V5" s="19"/>
-      <c r="W5" s="19"/>
-      <c r="X5" s="19"/>
-      <c r="Y5" s="19"/>
-      <c r="Z5" s="19"/>
-      <c r="AA5" s="19"/>
-      <c r="AB5" s="19"/>
-      <c r="AC5" s="19"/>
-      <c r="AD5" s="19"/>
-      <c r="AE5" s="19"/>
-      <c r="AF5" s="19"/>
-      <c r="AG5" s="19"/>
-      <c r="AH5" s="19"/>
-      <c r="AI5" s="19" t="s">
-        <v>58</v>
-      </c>
-      <c r="AJ5" s="19"/>
-      <c r="AK5" s="19"/>
-      <c r="AL5" s="19"/>
-      <c r="AM5" s="19"/>
-      <c r="AN5" s="19"/>
-      <c r="AO5" s="19"/>
-      <c r="AP5" s="19"/>
-      <c r="AQ5" s="19"/>
-      <c r="AR5" s="19"/>
-      <c r="AS5" s="19"/>
-      <c r="AT5" s="19"/>
-      <c r="AU5" s="19"/>
-      <c r="AV5" s="19"/>
-      <c r="AW5" s="19"/>
-      <c r="AX5" s="20" t="s">
-        <v>55</v>
-      </c>
-      <c r="AY5" s="20"/>
-      <c r="AZ5" s="20"/>
-      <c r="BA5" s="18">
+      <c r="U5" s="47"/>
+      <c r="V5" s="47"/>
+      <c r="W5" s="47"/>
+      <c r="X5" s="47"/>
+      <c r="Y5" s="47"/>
+      <c r="Z5" s="47"/>
+      <c r="AA5" s="47"/>
+      <c r="AB5" s="47"/>
+      <c r="AC5" s="47"/>
+      <c r="AD5" s="47"/>
+      <c r="AE5" s="47"/>
+      <c r="AF5" s="47"/>
+      <c r="AG5" s="47"/>
+      <c r="AH5" s="47"/>
+      <c r="AI5" s="47" t="s">
+        <v>51</v>
+      </c>
+      <c r="AJ5" s="47"/>
+      <c r="AK5" s="47"/>
+      <c r="AL5" s="47"/>
+      <c r="AM5" s="47"/>
+      <c r="AN5" s="47"/>
+      <c r="AO5" s="47"/>
+      <c r="AP5" s="47"/>
+      <c r="AQ5" s="47"/>
+      <c r="AR5" s="47"/>
+      <c r="AS5" s="47"/>
+      <c r="AT5" s="47"/>
+      <c r="AU5" s="47"/>
+      <c r="AV5" s="47"/>
+      <c r="AW5" s="47"/>
+      <c r="AX5" s="48" t="s">
+        <v>48</v>
+      </c>
+      <c r="AY5" s="48"/>
+      <c r="AZ5" s="48"/>
+      <c r="BA5" s="49">
         <v>44938</v>
       </c>
-      <c r="BB5" s="18"/>
-      <c r="BC5" s="18"/>
-      <c r="BD5" s="17" t="s">
+      <c r="BB5" s="49"/>
+      <c r="BC5" s="49"/>
+      <c r="BD5" s="50" t="s">
         <v>24</v>
       </c>
-      <c r="BE5" s="17"/>
-      <c r="BF5" s="17"/>
-      <c r="BG5" s="17"/>
-      <c r="BH5" s="17"/>
-      <c r="BI5" s="18"/>
-      <c r="BJ5" s="18"/>
+      <c r="BE5" s="50"/>
+      <c r="BF5" s="50"/>
+      <c r="BG5" s="50"/>
+      <c r="BH5" s="50"/>
+      <c r="BI5" s="49"/>
+      <c r="BJ5" s="49"/>
       <c r="BM5" s="3" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:65" ht="72" customHeight="1">
-      <c r="A6" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="B6" s="17"/>
-      <c r="C6" s="17"/>
-      <c r="D6" s="17"/>
-      <c r="E6" s="19" t="s">
+      <c r="A6" s="50" t="s">
+        <v>59</v>
+      </c>
+      <c r="B6" s="50"/>
+      <c r="C6" s="50"/>
+      <c r="D6" s="50"/>
+      <c r="E6" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="F6" s="19"/>
-      <c r="G6" s="19"/>
-      <c r="H6" s="19"/>
-      <c r="I6" s="19"/>
-      <c r="J6" s="19" t="s">
-        <v>57</v>
-      </c>
-      <c r="K6" s="19"/>
-      <c r="L6" s="19"/>
-      <c r="M6" s="19"/>
-      <c r="N6" s="19"/>
-      <c r="O6" s="19" t="s">
+      <c r="F6" s="47"/>
+      <c r="G6" s="47"/>
+      <c r="H6" s="47"/>
+      <c r="I6" s="47"/>
+      <c r="J6" s="47" t="s">
+        <v>50</v>
+      </c>
+      <c r="K6" s="47"/>
+      <c r="L6" s="47"/>
+      <c r="M6" s="47"/>
+      <c r="N6" s="47"/>
+      <c r="O6" s="47" t="s">
         <v>23</v>
       </c>
-      <c r="P6" s="19"/>
-      <c r="Q6" s="19"/>
-      <c r="R6" s="19"/>
-      <c r="S6" s="19"/>
-      <c r="T6" s="19" t="s">
-        <v>59</v>
-      </c>
-      <c r="U6" s="19"/>
-      <c r="V6" s="19"/>
-      <c r="W6" s="19"/>
-      <c r="X6" s="19"/>
-      <c r="Y6" s="19"/>
-      <c r="Z6" s="19"/>
-      <c r="AA6" s="19"/>
-      <c r="AB6" s="19"/>
-      <c r="AC6" s="19"/>
-      <c r="AD6" s="19"/>
-      <c r="AE6" s="19"/>
-      <c r="AF6" s="19"/>
-      <c r="AG6" s="19"/>
-      <c r="AH6" s="19"/>
-      <c r="AI6" s="19" t="s">
-        <v>60</v>
-      </c>
-      <c r="AJ6" s="19"/>
-      <c r="AK6" s="19"/>
-      <c r="AL6" s="19"/>
-      <c r="AM6" s="19"/>
-      <c r="AN6" s="19"/>
-      <c r="AO6" s="19"/>
-      <c r="AP6" s="19"/>
-      <c r="AQ6" s="19"/>
-      <c r="AR6" s="19"/>
-      <c r="AS6" s="19"/>
-      <c r="AT6" s="19"/>
-      <c r="AU6" s="19"/>
-      <c r="AV6" s="19"/>
-      <c r="AW6" s="19"/>
-      <c r="AX6" s="20"/>
-      <c r="AY6" s="20"/>
-      <c r="AZ6" s="20"/>
-      <c r="BA6" s="18"/>
-      <c r="BB6" s="18"/>
-      <c r="BC6" s="18"/>
-      <c r="BD6" s="17"/>
-      <c r="BE6" s="17"/>
-      <c r="BF6" s="17"/>
-      <c r="BG6" s="17"/>
-      <c r="BH6" s="17"/>
-      <c r="BI6" s="18"/>
-      <c r="BJ6" s="18"/>
+      <c r="P6" s="47"/>
+      <c r="Q6" s="47"/>
+      <c r="R6" s="47"/>
+      <c r="S6" s="47"/>
+      <c r="T6" s="47" t="s">
+        <v>52</v>
+      </c>
+      <c r="U6" s="47"/>
+      <c r="V6" s="47"/>
+      <c r="W6" s="47"/>
+      <c r="X6" s="47"/>
+      <c r="Y6" s="47"/>
+      <c r="Z6" s="47"/>
+      <c r="AA6" s="47"/>
+      <c r="AB6" s="47"/>
+      <c r="AC6" s="47"/>
+      <c r="AD6" s="47"/>
+      <c r="AE6" s="47"/>
+      <c r="AF6" s="47"/>
+      <c r="AG6" s="47"/>
+      <c r="AH6" s="47"/>
+      <c r="AI6" s="47" t="s">
+        <v>53</v>
+      </c>
+      <c r="AJ6" s="47"/>
+      <c r="AK6" s="47"/>
+      <c r="AL6" s="47"/>
+      <c r="AM6" s="47"/>
+      <c r="AN6" s="47"/>
+      <c r="AO6" s="47"/>
+      <c r="AP6" s="47"/>
+      <c r="AQ6" s="47"/>
+      <c r="AR6" s="47"/>
+      <c r="AS6" s="47"/>
+      <c r="AT6" s="47"/>
+      <c r="AU6" s="47"/>
+      <c r="AV6" s="47"/>
+      <c r="AW6" s="47"/>
+      <c r="AX6" s="48" t="s">
+        <v>48</v>
+      </c>
+      <c r="AY6" s="48"/>
+      <c r="AZ6" s="48"/>
+      <c r="BA6" s="49">
+        <v>44938</v>
+      </c>
+      <c r="BB6" s="49"/>
+      <c r="BC6" s="49"/>
+      <c r="BD6" s="50" t="s">
+        <v>24</v>
+      </c>
+      <c r="BE6" s="50"/>
+      <c r="BF6" s="50"/>
+      <c r="BG6" s="50"/>
+      <c r="BH6" s="50"/>
+      <c r="BI6" s="49"/>
+      <c r="BJ6" s="49"/>
       <c r="BM6" s="3" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:65" ht="75" customHeight="1">
-      <c r="A7" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="B7" s="17"/>
-      <c r="C7" s="17"/>
-      <c r="D7" s="17"/>
-      <c r="E7" s="19" t="s">
+      <c r="A7" s="50" t="s">
+        <v>60</v>
+      </c>
+      <c r="B7" s="50"/>
+      <c r="C7" s="50"/>
+      <c r="D7" s="50"/>
+      <c r="E7" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="F7" s="19"/>
-      <c r="G7" s="19"/>
-      <c r="H7" s="19"/>
-      <c r="I7" s="19"/>
-      <c r="J7" s="19" t="s">
-        <v>57</v>
-      </c>
-      <c r="K7" s="19"/>
-      <c r="L7" s="19"/>
-      <c r="M7" s="19"/>
-      <c r="N7" s="19"/>
-      <c r="O7" s="19" t="s">
+      <c r="F7" s="47"/>
+      <c r="G7" s="47"/>
+      <c r="H7" s="47"/>
+      <c r="I7" s="47"/>
+      <c r="J7" s="47" t="s">
+        <v>50</v>
+      </c>
+      <c r="K7" s="47"/>
+      <c r="L7" s="47"/>
+      <c r="M7" s="47"/>
+      <c r="N7" s="47"/>
+      <c r="O7" s="47" t="s">
         <v>23</v>
       </c>
-      <c r="P7" s="19"/>
-      <c r="Q7" s="19"/>
-      <c r="R7" s="19"/>
-      <c r="S7" s="19"/>
-      <c r="T7" s="19" t="s">
-        <v>61</v>
-      </c>
-      <c r="U7" s="19"/>
-      <c r="V7" s="19"/>
-      <c r="W7" s="19"/>
-      <c r="X7" s="19"/>
-      <c r="Y7" s="19"/>
-      <c r="Z7" s="19"/>
-      <c r="AA7" s="19"/>
-      <c r="AB7" s="19"/>
-      <c r="AC7" s="19"/>
-      <c r="AD7" s="19"/>
-      <c r="AE7" s="19"/>
-      <c r="AF7" s="19"/>
-      <c r="AG7" s="19"/>
-      <c r="AH7" s="19"/>
-      <c r="AI7" s="19" t="s">
+      <c r="P7" s="47"/>
+      <c r="Q7" s="47"/>
+      <c r="R7" s="47"/>
+      <c r="S7" s="47"/>
+      <c r="T7" s="47" t="s">
+        <v>54</v>
+      </c>
+      <c r="U7" s="47"/>
+      <c r="V7" s="47"/>
+      <c r="W7" s="47"/>
+      <c r="X7" s="47"/>
+      <c r="Y7" s="47"/>
+      <c r="Z7" s="47"/>
+      <c r="AA7" s="47"/>
+      <c r="AB7" s="47"/>
+      <c r="AC7" s="47"/>
+      <c r="AD7" s="47"/>
+      <c r="AE7" s="47"/>
+      <c r="AF7" s="47"/>
+      <c r="AG7" s="47"/>
+      <c r="AH7" s="47"/>
+      <c r="AI7" s="47" t="s">
         <v>27</v>
       </c>
-      <c r="AJ7" s="19"/>
-      <c r="AK7" s="19"/>
-      <c r="AL7" s="19"/>
-      <c r="AM7" s="19"/>
-      <c r="AN7" s="19"/>
-      <c r="AO7" s="19"/>
-      <c r="AP7" s="19"/>
-      <c r="AQ7" s="19"/>
-      <c r="AR7" s="19"/>
-      <c r="AS7" s="19"/>
-      <c r="AT7" s="19"/>
-      <c r="AU7" s="19"/>
-      <c r="AV7" s="19"/>
-      <c r="AW7" s="19"/>
-      <c r="AX7" s="20"/>
-      <c r="AY7" s="20"/>
-      <c r="AZ7" s="20"/>
-      <c r="BA7" s="18"/>
-      <c r="BB7" s="18"/>
-      <c r="BC7" s="18"/>
-      <c r="BD7" s="17"/>
-      <c r="BE7" s="17"/>
-      <c r="BF7" s="17"/>
-      <c r="BG7" s="17"/>
-      <c r="BH7" s="17"/>
-      <c r="BI7" s="18"/>
-      <c r="BJ7" s="18"/>
+      <c r="AJ7" s="47"/>
+      <c r="AK7" s="47"/>
+      <c r="AL7" s="47"/>
+      <c r="AM7" s="47"/>
+      <c r="AN7" s="47"/>
+      <c r="AO7" s="47"/>
+      <c r="AP7" s="47"/>
+      <c r="AQ7" s="47"/>
+      <c r="AR7" s="47"/>
+      <c r="AS7" s="47"/>
+      <c r="AT7" s="47"/>
+      <c r="AU7" s="47"/>
+      <c r="AV7" s="47"/>
+      <c r="AW7" s="47"/>
+      <c r="AX7" s="48" t="s">
+        <v>48</v>
+      </c>
+      <c r="AY7" s="48"/>
+      <c r="AZ7" s="48"/>
+      <c r="BA7" s="49">
+        <v>44938</v>
+      </c>
+      <c r="BB7" s="49"/>
+      <c r="BC7" s="49"/>
+      <c r="BD7" s="50" t="s">
+        <v>24</v>
+      </c>
+      <c r="BE7" s="50"/>
+      <c r="BF7" s="50"/>
+      <c r="BG7" s="50"/>
+      <c r="BH7" s="50"/>
+      <c r="BI7" s="49"/>
+      <c r="BJ7" s="49"/>
       <c r="BM7" s="1" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:65" ht="75" customHeight="1">
-      <c r="A8" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="B8" s="17"/>
-      <c r="C8" s="17"/>
-      <c r="D8" s="17"/>
-      <c r="E8" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="F8" s="19"/>
-      <c r="G8" s="19"/>
-      <c r="H8" s="19"/>
-      <c r="I8" s="19"/>
-      <c r="J8" s="19" t="s">
-        <v>57</v>
-      </c>
-      <c r="K8" s="19"/>
-      <c r="L8" s="19"/>
-      <c r="M8" s="19"/>
-      <c r="N8" s="19"/>
-      <c r="O8" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="P8" s="19"/>
-      <c r="Q8" s="19"/>
-      <c r="R8" s="19"/>
-      <c r="S8" s="19"/>
-      <c r="T8" s="19" t="s">
-        <v>62</v>
-      </c>
-      <c r="U8" s="19"/>
-      <c r="V8" s="19"/>
-      <c r="W8" s="19"/>
-      <c r="X8" s="19"/>
-      <c r="Y8" s="19"/>
-      <c r="Z8" s="19"/>
-      <c r="AA8" s="19"/>
-      <c r="AB8" s="19"/>
-      <c r="AC8" s="19"/>
-      <c r="AD8" s="19"/>
-      <c r="AE8" s="19"/>
-      <c r="AF8" s="19"/>
-      <c r="AG8" s="19"/>
-      <c r="AH8" s="19"/>
-      <c r="AI8" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="AJ8" s="19"/>
-      <c r="AK8" s="19"/>
-      <c r="AL8" s="19"/>
-      <c r="AM8" s="19"/>
-      <c r="AN8" s="19"/>
-      <c r="AO8" s="19"/>
-      <c r="AP8" s="19"/>
-      <c r="AQ8" s="19"/>
-      <c r="AR8" s="19"/>
-      <c r="AS8" s="19"/>
-      <c r="AT8" s="19"/>
-      <c r="AU8" s="19"/>
-      <c r="AV8" s="19"/>
-      <c r="AW8" s="19"/>
-      <c r="AX8" s="20"/>
-      <c r="AY8" s="20"/>
-      <c r="AZ8" s="20"/>
-      <c r="BA8" s="18"/>
-      <c r="BB8" s="18"/>
-      <c r="BC8" s="18"/>
-      <c r="BD8" s="17"/>
-      <c r="BE8" s="17"/>
-      <c r="BF8" s="17"/>
-      <c r="BG8" s="17"/>
-      <c r="BH8" s="17"/>
-      <c r="BI8" s="18"/>
-      <c r="BJ8" s="18"/>
+      <c r="A8" s="50"/>
+      <c r="B8" s="50"/>
+      <c r="C8" s="50"/>
+      <c r="D8" s="50"/>
+      <c r="E8" s="47"/>
+      <c r="F8" s="47"/>
+      <c r="G8" s="47"/>
+      <c r="H8" s="47"/>
+      <c r="I8" s="47"/>
+      <c r="J8" s="47"/>
+      <c r="K8" s="47"/>
+      <c r="L8" s="47"/>
+      <c r="M8" s="47"/>
+      <c r="N8" s="47"/>
+      <c r="O8" s="47"/>
+      <c r="P8" s="47"/>
+      <c r="Q8" s="47"/>
+      <c r="R8" s="47"/>
+      <c r="S8" s="47"/>
+      <c r="T8" s="47"/>
+      <c r="U8" s="47"/>
+      <c r="V8" s="47"/>
+      <c r="W8" s="47"/>
+      <c r="X8" s="47"/>
+      <c r="Y8" s="47"/>
+      <c r="Z8" s="47"/>
+      <c r="AA8" s="47"/>
+      <c r="AB8" s="47"/>
+      <c r="AC8" s="47"/>
+      <c r="AD8" s="47"/>
+      <c r="AE8" s="47"/>
+      <c r="AF8" s="47"/>
+      <c r="AG8" s="47"/>
+      <c r="AH8" s="47"/>
+      <c r="AI8" s="47"/>
+      <c r="AJ8" s="47"/>
+      <c r="AK8" s="47"/>
+      <c r="AL8" s="47"/>
+      <c r="AM8" s="47"/>
+      <c r="AN8" s="47"/>
+      <c r="AO8" s="47"/>
+      <c r="AP8" s="47"/>
+      <c r="AQ8" s="47"/>
+      <c r="AR8" s="47"/>
+      <c r="AS8" s="47"/>
+      <c r="AT8" s="47"/>
+      <c r="AU8" s="47"/>
+      <c r="AV8" s="47"/>
+      <c r="AW8" s="47"/>
+      <c r="AX8" s="48"/>
+      <c r="AY8" s="48"/>
+      <c r="AZ8" s="48"/>
+      <c r="BA8" s="49"/>
+      <c r="BB8" s="49"/>
+      <c r="BC8" s="49"/>
+      <c r="BD8" s="50"/>
+      <c r="BE8" s="50"/>
+      <c r="BF8" s="50"/>
+      <c r="BG8" s="50"/>
+      <c r="BH8" s="50"/>
+      <c r="BI8" s="49"/>
+      <c r="BJ8" s="49"/>
       <c r="BM8" s="1" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:65" ht="75" customHeight="1">
-      <c r="A9" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="B9" s="17"/>
-      <c r="C9" s="17"/>
-      <c r="D9" s="17"/>
-      <c r="E9" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="F9" s="19"/>
-      <c r="G9" s="19"/>
-      <c r="H9" s="19"/>
-      <c r="I9" s="19"/>
-      <c r="J9" s="19" t="s">
-        <v>57</v>
-      </c>
-      <c r="K9" s="19"/>
-      <c r="L9" s="19"/>
-      <c r="M9" s="19"/>
-      <c r="N9" s="19"/>
-      <c r="O9" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="P9" s="19"/>
-      <c r="Q9" s="19"/>
-      <c r="R9" s="19"/>
-      <c r="S9" s="19"/>
-      <c r="T9" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="U9" s="19"/>
-      <c r="V9" s="19"/>
-      <c r="W9" s="19"/>
-      <c r="X9" s="19"/>
-      <c r="Y9" s="19"/>
-      <c r="Z9" s="19"/>
-      <c r="AA9" s="19"/>
-      <c r="AB9" s="19"/>
-      <c r="AC9" s="19"/>
-      <c r="AD9" s="19"/>
-      <c r="AE9" s="19"/>
-      <c r="AF9" s="19"/>
-      <c r="AG9" s="19"/>
-      <c r="AH9" s="19"/>
-      <c r="AI9" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="AJ9" s="19"/>
-      <c r="AK9" s="19"/>
-      <c r="AL9" s="19"/>
-      <c r="AM9" s="19"/>
-      <c r="AN9" s="19"/>
-      <c r="AO9" s="19"/>
-      <c r="AP9" s="19"/>
-      <c r="AQ9" s="19"/>
-      <c r="AR9" s="19"/>
-      <c r="AS9" s="19"/>
-      <c r="AT9" s="19"/>
-      <c r="AU9" s="19"/>
-      <c r="AV9" s="19"/>
-      <c r="AW9" s="19"/>
-      <c r="AX9" s="20"/>
-      <c r="AY9" s="20"/>
-      <c r="AZ9" s="20"/>
-      <c r="BA9" s="18"/>
-      <c r="BB9" s="18"/>
-      <c r="BC9" s="18"/>
-      <c r="BD9" s="17"/>
-      <c r="BE9" s="17"/>
-      <c r="BF9" s="17"/>
-      <c r="BG9" s="17"/>
-      <c r="BH9" s="17"/>
-      <c r="BI9" s="18"/>
-      <c r="BJ9" s="18"/>
+      <c r="A9" s="50"/>
+      <c r="B9" s="50"/>
+      <c r="C9" s="50"/>
+      <c r="D9" s="50"/>
+      <c r="E9" s="47"/>
+      <c r="F9" s="47"/>
+      <c r="G9" s="47"/>
+      <c r="H9" s="47"/>
+      <c r="I9" s="47"/>
+      <c r="J9" s="47"/>
+      <c r="K9" s="47"/>
+      <c r="L9" s="47"/>
+      <c r="M9" s="47"/>
+      <c r="N9" s="47"/>
+      <c r="O9" s="47"/>
+      <c r="P9" s="47"/>
+      <c r="Q9" s="47"/>
+      <c r="R9" s="47"/>
+      <c r="S9" s="47"/>
+      <c r="T9" s="47"/>
+      <c r="U9" s="47"/>
+      <c r="V9" s="47"/>
+      <c r="W9" s="47"/>
+      <c r="X9" s="47"/>
+      <c r="Y9" s="47"/>
+      <c r="Z9" s="47"/>
+      <c r="AA9" s="47"/>
+      <c r="AB9" s="47"/>
+      <c r="AC9" s="47"/>
+      <c r="AD9" s="47"/>
+      <c r="AE9" s="47"/>
+      <c r="AF9" s="47"/>
+      <c r="AG9" s="47"/>
+      <c r="AH9" s="47"/>
+      <c r="AI9" s="47"/>
+      <c r="AJ9" s="47"/>
+      <c r="AK9" s="47"/>
+      <c r="AL9" s="47"/>
+      <c r="AM9" s="47"/>
+      <c r="AN9" s="47"/>
+      <c r="AO9" s="47"/>
+      <c r="AP9" s="47"/>
+      <c r="AQ9" s="47"/>
+      <c r="AR9" s="47"/>
+      <c r="AS9" s="47"/>
+      <c r="AT9" s="47"/>
+      <c r="AU9" s="47"/>
+      <c r="AV9" s="47"/>
+      <c r="AW9" s="47"/>
+      <c r="AX9" s="48"/>
+      <c r="AY9" s="48"/>
+      <c r="AZ9" s="48"/>
+      <c r="BA9" s="49"/>
+      <c r="BB9" s="49"/>
+      <c r="BC9" s="49"/>
+      <c r="BD9" s="50"/>
+      <c r="BE9" s="50"/>
+      <c r="BF9" s="50"/>
+      <c r="BG9" s="50"/>
+      <c r="BH9" s="50"/>
+      <c r="BI9" s="49"/>
+      <c r="BJ9" s="49"/>
       <c r="BM9" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:65" ht="75" customHeight="1">
-      <c r="A10" s="17"/>
-      <c r="B10" s="17"/>
-      <c r="C10" s="17"/>
-      <c r="D10" s="17"/>
-      <c r="E10" s="19"/>
-      <c r="F10" s="19"/>
-      <c r="G10" s="19"/>
-      <c r="H10" s="19"/>
-      <c r="I10" s="19"/>
-      <c r="J10" s="19"/>
-      <c r="K10" s="19"/>
-      <c r="L10" s="19"/>
-      <c r="M10" s="19"/>
-      <c r="N10" s="19"/>
-      <c r="O10" s="19"/>
-      <c r="P10" s="19"/>
-      <c r="Q10" s="19"/>
-      <c r="R10" s="19"/>
-      <c r="S10" s="19"/>
-      <c r="T10" s="19"/>
-      <c r="U10" s="19"/>
-      <c r="V10" s="19"/>
-      <c r="W10" s="19"/>
-      <c r="X10" s="19"/>
-      <c r="Y10" s="19"/>
-      <c r="Z10" s="19"/>
-      <c r="AA10" s="19"/>
-      <c r="AB10" s="19"/>
-      <c r="AC10" s="19"/>
-      <c r="AD10" s="19"/>
-      <c r="AE10" s="19"/>
-      <c r="AF10" s="19"/>
-      <c r="AG10" s="19"/>
-      <c r="AH10" s="19"/>
-      <c r="AI10" s="19"/>
-      <c r="AJ10" s="19"/>
-      <c r="AK10" s="19"/>
-      <c r="AL10" s="19"/>
-      <c r="AM10" s="19"/>
-      <c r="AN10" s="19"/>
-      <c r="AO10" s="19"/>
-      <c r="AP10" s="19"/>
-      <c r="AQ10" s="19"/>
-      <c r="AR10" s="19"/>
-      <c r="AS10" s="19"/>
-      <c r="AT10" s="19"/>
-      <c r="AU10" s="19"/>
-      <c r="AV10" s="19"/>
-      <c r="AW10" s="19"/>
-      <c r="AX10" s="20"/>
-      <c r="AY10" s="20"/>
-      <c r="AZ10" s="20"/>
-      <c r="BA10" s="18"/>
-      <c r="BB10" s="18"/>
-      <c r="BC10" s="18"/>
-      <c r="BD10" s="17"/>
-      <c r="BE10" s="17"/>
-      <c r="BF10" s="17"/>
-      <c r="BG10" s="17"/>
-      <c r="BH10" s="17"/>
-      <c r="BI10" s="18"/>
-      <c r="BJ10" s="18"/>
-      <c r="BM10" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="11" spans="1:65" ht="75" customHeight="1">
-      <c r="A11" s="17"/>
-      <c r="B11" s="17"/>
-      <c r="C11" s="17"/>
-      <c r="D11" s="17"/>
-      <c r="E11" s="19"/>
-      <c r="F11" s="19"/>
-      <c r="G11" s="19"/>
-      <c r="H11" s="19"/>
-      <c r="I11" s="19"/>
-      <c r="J11" s="19"/>
-      <c r="K11" s="19"/>
-      <c r="L11" s="19"/>
-      <c r="M11" s="19"/>
-      <c r="N11" s="19"/>
-      <c r="O11" s="19"/>
-      <c r="P11" s="19"/>
-      <c r="Q11" s="19"/>
-      <c r="R11" s="19"/>
-      <c r="S11" s="19"/>
-      <c r="T11" s="19"/>
-      <c r="U11" s="19"/>
-      <c r="V11" s="19"/>
-      <c r="W11" s="19"/>
-      <c r="X11" s="19"/>
-      <c r="Y11" s="19"/>
-      <c r="Z11" s="19"/>
-      <c r="AA11" s="19"/>
-      <c r="AB11" s="19"/>
-      <c r="AC11" s="19"/>
-      <c r="AD11" s="19"/>
-      <c r="AE11" s="19"/>
-      <c r="AF11" s="19"/>
-      <c r="AG11" s="19"/>
-      <c r="AH11" s="19"/>
-      <c r="AI11" s="19"/>
-      <c r="AJ11" s="19"/>
-      <c r="AK11" s="19"/>
-      <c r="AL11" s="19"/>
-      <c r="AM11" s="19"/>
-      <c r="AN11" s="19"/>
-      <c r="AO11" s="19"/>
-      <c r="AP11" s="19"/>
-      <c r="AQ11" s="19"/>
-      <c r="AR11" s="19"/>
-      <c r="AS11" s="19"/>
-      <c r="AT11" s="19"/>
-      <c r="AU11" s="19"/>
-      <c r="AV11" s="19"/>
-      <c r="AW11" s="19"/>
-      <c r="AX11" s="20"/>
-      <c r="AY11" s="20"/>
-      <c r="AZ11" s="20"/>
-      <c r="BA11" s="18"/>
-      <c r="BB11" s="18"/>
-      <c r="BC11" s="18"/>
-      <c r="BD11" s="17"/>
-      <c r="BE11" s="17"/>
-      <c r="BF11" s="17"/>
-      <c r="BG11" s="17"/>
-      <c r="BH11" s="17"/>
-      <c r="BI11" s="18"/>
-      <c r="BJ11" s="18"/>
-      <c r="BM11" s="1" t="s">
-        <v>26</v>
-      </c>
+    <row r="10" spans="1:65" ht="16.149999999999999" customHeight="1">
+      <c r="A10" s="4"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="4"/>
+      <c r="L10" s="4"/>
+      <c r="M10" s="4"/>
+      <c r="N10" s="4"/>
+      <c r="O10" s="4"/>
+      <c r="P10" s="4"/>
+      <c r="Q10" s="4"/>
+      <c r="R10" s="4"/>
+      <c r="S10" s="4"/>
+      <c r="T10" s="4"/>
+      <c r="U10" s="4"/>
+      <c r="V10" s="4"/>
+      <c r="W10" s="4"/>
+      <c r="X10" s="4"/>
+      <c r="Y10" s="4"/>
+      <c r="Z10" s="4"/>
+      <c r="AA10" s="4"/>
+      <c r="AB10" s="4"/>
+      <c r="AC10" s="4"/>
+      <c r="AD10" s="4"/>
+      <c r="AE10" s="4"/>
+      <c r="AF10" s="4"/>
+      <c r="AG10" s="4"/>
+      <c r="AH10" s="4"/>
+      <c r="AI10" s="4"/>
+      <c r="AJ10" s="4"/>
+      <c r="AK10" s="4"/>
+      <c r="AL10" s="4"/>
+      <c r="AM10" s="4"/>
+      <c r="AN10" s="4"/>
+      <c r="AO10" s="4"/>
+      <c r="AP10" s="4"/>
+      <c r="AQ10" s="4"/>
+      <c r="AR10" s="4"/>
+      <c r="AS10" s="4"/>
+      <c r="AT10" s="4"/>
+      <c r="AU10" s="4"/>
+      <c r="AV10" s="4"/>
+      <c r="AW10" s="4"/>
+      <c r="AX10" s="4"/>
+      <c r="AY10" s="4"/>
+      <c r="AZ10" s="4"/>
+      <c r="BA10" s="4"/>
+      <c r="BB10" s="4"/>
+      <c r="BC10" s="4"/>
+      <c r="BD10" s="4"/>
+      <c r="BE10" s="4"/>
+      <c r="BF10" s="4"/>
+      <c r="BG10" s="4"/>
+      <c r="BH10" s="4"/>
+      <c r="BI10" s="4"/>
+      <c r="BJ10" s="4"/>
+    </row>
+    <row r="11" spans="1:65" ht="16.149999999999999" customHeight="1">
+      <c r="A11" s="4"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="4"/>
+      <c r="L11" s="4"/>
+      <c r="M11" s="4"/>
+      <c r="N11" s="4"/>
+      <c r="O11" s="4"/>
+      <c r="P11" s="4"/>
+      <c r="Q11" s="4"/>
+      <c r="R11" s="4"/>
+      <c r="S11" s="4"/>
+      <c r="T11" s="4"/>
+      <c r="U11" s="4"/>
+      <c r="V11" s="4"/>
+      <c r="W11" s="4"/>
+      <c r="X11" s="4"/>
+      <c r="Y11" s="4"/>
+      <c r="Z11" s="4"/>
+      <c r="AA11" s="4"/>
+      <c r="AB11" s="4"/>
+      <c r="AC11" s="4"/>
+      <c r="AD11" s="4"/>
+      <c r="AE11" s="4"/>
+      <c r="AF11" s="4"/>
+      <c r="AG11" s="4"/>
+      <c r="AH11" s="4"/>
+      <c r="AI11" s="4"/>
+      <c r="AJ11" s="4"/>
+      <c r="AK11" s="4"/>
+      <c r="AL11" s="4"/>
+      <c r="AM11" s="4"/>
+      <c r="AN11" s="4"/>
+      <c r="AO11" s="4"/>
+      <c r="AP11" s="4"/>
+      <c r="AQ11" s="4"/>
+      <c r="AR11" s="4"/>
+      <c r="AS11" s="4"/>
+      <c r="AT11" s="4"/>
+      <c r="AU11" s="4"/>
+      <c r="AV11" s="4"/>
+      <c r="AW11" s="4"/>
+      <c r="AX11" s="4"/>
+      <c r="AY11" s="4"/>
+      <c r="AZ11" s="4"/>
+      <c r="BA11" s="4"/>
+      <c r="BB11" s="4"/>
+      <c r="BC11" s="4"/>
+      <c r="BD11" s="4"/>
+      <c r="BE11" s="4"/>
+      <c r="BF11" s="4"/>
+      <c r="BG11" s="4"/>
+      <c r="BH11" s="4"/>
+      <c r="BI11" s="4"/>
+      <c r="BJ11" s="4"/>
     </row>
     <row r="12" spans="1:65" ht="16.149999999999999" customHeight="1">
       <c r="A12" s="4"/>
@@ -4206,146 +4325,57 @@
       <c r="BI22" s="4"/>
       <c r="BJ22" s="4"/>
     </row>
-    <row r="23" spans="1:62" ht="16.149999999999999" customHeight="1">
-      <c r="A23" s="4"/>
-      <c r="B23" s="4"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="4"/>
-      <c r="G23" s="4"/>
-      <c r="H23" s="4"/>
-      <c r="I23" s="4"/>
-      <c r="J23" s="4"/>
-      <c r="K23" s="4"/>
-      <c r="L23" s="4"/>
-      <c r="M23" s="4"/>
-      <c r="N23" s="4"/>
-      <c r="O23" s="4"/>
-      <c r="P23" s="4"/>
-      <c r="Q23" s="4"/>
-      <c r="R23" s="4"/>
-      <c r="S23" s="4"/>
-      <c r="T23" s="4"/>
-      <c r="U23" s="4"/>
-      <c r="V23" s="4"/>
-      <c r="W23" s="4"/>
-      <c r="X23" s="4"/>
-      <c r="Y23" s="4"/>
-      <c r="Z23" s="4"/>
-      <c r="AA23" s="4"/>
-      <c r="AB23" s="4"/>
-      <c r="AC23" s="4"/>
-      <c r="AD23" s="4"/>
-      <c r="AE23" s="4"/>
-      <c r="AF23" s="4"/>
-      <c r="AG23" s="4"/>
-      <c r="AH23" s="4"/>
-      <c r="AI23" s="4"/>
-      <c r="AJ23" s="4"/>
-      <c r="AK23" s="4"/>
-      <c r="AL23" s="4"/>
-      <c r="AM23" s="4"/>
-      <c r="AN23" s="4"/>
-      <c r="AO23" s="4"/>
-      <c r="AP23" s="4"/>
-      <c r="AQ23" s="4"/>
-      <c r="AR23" s="4"/>
-      <c r="AS23" s="4"/>
-      <c r="AT23" s="4"/>
-      <c r="AU23" s="4"/>
-      <c r="AV23" s="4"/>
-      <c r="AW23" s="4"/>
-      <c r="AX23" s="4"/>
-      <c r="AY23" s="4"/>
-      <c r="AZ23" s="4"/>
-      <c r="BA23" s="4"/>
-      <c r="BB23" s="4"/>
-      <c r="BC23" s="4"/>
-      <c r="BD23" s="4"/>
-      <c r="BE23" s="4"/>
-      <c r="BF23" s="4"/>
-      <c r="BG23" s="4"/>
-      <c r="BH23" s="4"/>
-      <c r="BI23" s="4"/>
-      <c r="BJ23" s="4"/>
-    </row>
-    <row r="24" spans="1:62" ht="16.149999999999999" customHeight="1">
-      <c r="A24" s="4"/>
-      <c r="B24" s="4"/>
-      <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="4"/>
-      <c r="G24" s="4"/>
-      <c r="H24" s="4"/>
-      <c r="I24" s="4"/>
-      <c r="J24" s="4"/>
-      <c r="K24" s="4"/>
-      <c r="L24" s="4"/>
-      <c r="M24" s="4"/>
-      <c r="N24" s="4"/>
-      <c r="O24" s="4"/>
-      <c r="P24" s="4"/>
-      <c r="Q24" s="4"/>
-      <c r="R24" s="4"/>
-      <c r="S24" s="4"/>
-      <c r="T24" s="4"/>
-      <c r="U24" s="4"/>
-      <c r="V24" s="4"/>
-      <c r="W24" s="4"/>
-      <c r="X24" s="4"/>
-      <c r="Y24" s="4"/>
-      <c r="Z24" s="4"/>
-      <c r="AA24" s="4"/>
-      <c r="AB24" s="4"/>
-      <c r="AC24" s="4"/>
-      <c r="AD24" s="4"/>
-      <c r="AE24" s="4"/>
-      <c r="AF24" s="4"/>
-      <c r="AG24" s="4"/>
-      <c r="AH24" s="4"/>
-      <c r="AI24" s="4"/>
-      <c r="AJ24" s="4"/>
-      <c r="AK24" s="4"/>
-      <c r="AL24" s="4"/>
-      <c r="AM24" s="4"/>
-      <c r="AN24" s="4"/>
-      <c r="AO24" s="4"/>
-      <c r="AP24" s="4"/>
-      <c r="AQ24" s="4"/>
-      <c r="AR24" s="4"/>
-      <c r="AS24" s="4"/>
-      <c r="AT24" s="4"/>
-      <c r="AU24" s="4"/>
-      <c r="AV24" s="4"/>
-      <c r="AW24" s="4"/>
-      <c r="AX24" s="4"/>
-      <c r="AY24" s="4"/>
-      <c r="AZ24" s="4"/>
-      <c r="BA24" s="4"/>
-      <c r="BB24" s="4"/>
-      <c r="BC24" s="4"/>
-      <c r="BD24" s="4"/>
-      <c r="BE24" s="4"/>
-      <c r="BF24" s="4"/>
-      <c r="BG24" s="4"/>
-      <c r="BH24" s="4"/>
-      <c r="BI24" s="4"/>
-      <c r="BJ24" s="4"/>
-    </row>
   </sheetData>
-  <mergeCells count="94">
-    <mergeCell ref="A1:Q2"/>
-    <mergeCell ref="R1:W2"/>
-    <mergeCell ref="X1:AT2"/>
-    <mergeCell ref="AU1:AW2"/>
-    <mergeCell ref="AX1:BC2"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="E4:I4"/>
-    <mergeCell ref="J4:S4"/>
-    <mergeCell ref="T4:AH4"/>
-    <mergeCell ref="AI4:AW4"/>
+  <mergeCells count="72">
+    <mergeCell ref="BF8:BH8"/>
+    <mergeCell ref="BI8:BJ8"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="E9:I9"/>
+    <mergeCell ref="J9:N9"/>
+    <mergeCell ref="O9:S9"/>
+    <mergeCell ref="T9:AH9"/>
+    <mergeCell ref="AI9:AW9"/>
+    <mergeCell ref="AX9:AZ9"/>
+    <mergeCell ref="BA9:BC9"/>
+    <mergeCell ref="BD9:BE9"/>
+    <mergeCell ref="BF9:BH9"/>
+    <mergeCell ref="BI9:BJ9"/>
+    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="E8:I8"/>
+    <mergeCell ref="J8:N8"/>
+    <mergeCell ref="O8:S8"/>
+    <mergeCell ref="T8:AH8"/>
+    <mergeCell ref="AI8:AW8"/>
+    <mergeCell ref="AX8:AZ8"/>
+    <mergeCell ref="BA8:BC8"/>
+    <mergeCell ref="BD8:BE8"/>
+    <mergeCell ref="BA6:BC6"/>
+    <mergeCell ref="BD6:BE6"/>
+    <mergeCell ref="BA7:BC7"/>
+    <mergeCell ref="BD7:BE7"/>
+    <mergeCell ref="AI7:AW7"/>
+    <mergeCell ref="AX7:AZ7"/>
+    <mergeCell ref="BF7:BH7"/>
+    <mergeCell ref="BI7:BJ7"/>
+    <mergeCell ref="BF6:BH6"/>
+    <mergeCell ref="BI6:BJ6"/>
+    <mergeCell ref="AI6:AW6"/>
+    <mergeCell ref="AX6:AZ6"/>
+    <mergeCell ref="A6:D6"/>
+    <mergeCell ref="E6:I6"/>
+    <mergeCell ref="J6:N6"/>
+    <mergeCell ref="O6:S6"/>
+    <mergeCell ref="T6:AH6"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="E7:I7"/>
+    <mergeCell ref="J7:N7"/>
+    <mergeCell ref="O7:S7"/>
+    <mergeCell ref="T7:AH7"/>
+    <mergeCell ref="A5:D5"/>
+    <mergeCell ref="E5:I5"/>
+    <mergeCell ref="J5:N5"/>
+    <mergeCell ref="O5:S5"/>
+    <mergeCell ref="T5:AH5"/>
     <mergeCell ref="AI5:AW5"/>
     <mergeCell ref="AX5:AZ5"/>
     <mergeCell ref="BA5:BC5"/>
@@ -4357,79 +4387,18 @@
     <mergeCell ref="BF4:BH4"/>
     <mergeCell ref="BD1:BF2"/>
     <mergeCell ref="BI4:BJ4"/>
-    <mergeCell ref="A5:D5"/>
-    <mergeCell ref="E5:I5"/>
-    <mergeCell ref="J5:N5"/>
-    <mergeCell ref="O5:S5"/>
-    <mergeCell ref="T5:AH5"/>
     <mergeCell ref="BF5:BH5"/>
     <mergeCell ref="BI5:BJ5"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="E7:I7"/>
-    <mergeCell ref="J7:N7"/>
-    <mergeCell ref="O7:S7"/>
-    <mergeCell ref="T7:AH7"/>
-    <mergeCell ref="BF6:BH6"/>
-    <mergeCell ref="BI6:BJ6"/>
-    <mergeCell ref="A6:D6"/>
-    <mergeCell ref="E6:I6"/>
-    <mergeCell ref="J6:N6"/>
-    <mergeCell ref="O6:S6"/>
-    <mergeCell ref="T6:AH6"/>
-    <mergeCell ref="AI6:AW6"/>
-    <mergeCell ref="AX6:AZ6"/>
-    <mergeCell ref="A8:D8"/>
-    <mergeCell ref="E8:I8"/>
-    <mergeCell ref="J8:N8"/>
-    <mergeCell ref="O8:S8"/>
-    <mergeCell ref="T8:AH8"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="E9:I9"/>
-    <mergeCell ref="J9:N9"/>
-    <mergeCell ref="O9:S9"/>
-    <mergeCell ref="T9:AH9"/>
-    <mergeCell ref="AI7:AW7"/>
-    <mergeCell ref="AX7:AZ7"/>
-    <mergeCell ref="BF7:BH7"/>
-    <mergeCell ref="BI7:BJ7"/>
-    <mergeCell ref="AX9:AZ9"/>
-    <mergeCell ref="BA9:BC9"/>
-    <mergeCell ref="BD9:BE9"/>
-    <mergeCell ref="BF9:BH9"/>
-    <mergeCell ref="BI9:BJ9"/>
-    <mergeCell ref="AI9:AW9"/>
-    <mergeCell ref="AX8:AZ8"/>
-    <mergeCell ref="BA8:BC8"/>
-    <mergeCell ref="BD8:BE8"/>
-    <mergeCell ref="BF8:BH8"/>
-    <mergeCell ref="BI8:BJ8"/>
-    <mergeCell ref="AI8:AW8"/>
-    <mergeCell ref="BD10:BE10"/>
-    <mergeCell ref="BA6:BC6"/>
-    <mergeCell ref="BD6:BE6"/>
-    <mergeCell ref="BA7:BC7"/>
-    <mergeCell ref="BD7:BE7"/>
-    <mergeCell ref="O10:S10"/>
-    <mergeCell ref="T10:AH10"/>
-    <mergeCell ref="AI10:AW10"/>
-    <mergeCell ref="AX10:AZ10"/>
-    <mergeCell ref="BA10:BC10"/>
-    <mergeCell ref="BF10:BH10"/>
-    <mergeCell ref="BI10:BJ10"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="E11:I11"/>
-    <mergeCell ref="J11:N11"/>
-    <mergeCell ref="O11:S11"/>
-    <mergeCell ref="T11:AH11"/>
-    <mergeCell ref="AI11:AW11"/>
-    <mergeCell ref="AX11:AZ11"/>
-    <mergeCell ref="BA11:BC11"/>
-    <mergeCell ref="BD11:BE11"/>
-    <mergeCell ref="BF11:BH11"/>
-    <mergeCell ref="BI11:BJ11"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="E10:I10"/>
-    <mergeCell ref="J10:N10"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="E4:I4"/>
+    <mergeCell ref="J4:S4"/>
+    <mergeCell ref="T4:AH4"/>
+    <mergeCell ref="AI4:AW4"/>
+    <mergeCell ref="A1:Q2"/>
+    <mergeCell ref="R1:W2"/>
+    <mergeCell ref="X1:AT2"/>
+    <mergeCell ref="AU1:AW2"/>
+    <mergeCell ref="AX1:BC2"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4443,11 +4412,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="B3:BH79"/>
+  <dimension ref="B3:BH100"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B78" sqref="B78:D79"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E79" sqref="E79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="16.149999999999999" customHeight="1"/>
@@ -4457,235 +4426,235 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:24" ht="16.149999999999999" customHeight="1">
-      <c r="B3" s="61" t="s">
-        <v>30</v>
-      </c>
-      <c r="C3" s="61"/>
-      <c r="D3" s="61"/>
-      <c r="E3" s="61"/>
-      <c r="F3" s="61"/>
-      <c r="G3" s="61"/>
-      <c r="H3" s="61"/>
+      <c r="B3" s="60" t="s">
+        <v>58</v>
+      </c>
+      <c r="C3" s="60"/>
+      <c r="D3" s="60"/>
+      <c r="E3" s="60"/>
+      <c r="F3" s="60"/>
+      <c r="G3" s="60"/>
+      <c r="H3" s="60"/>
       <c r="O3" s="6"/>
       <c r="P3" s="6"/>
       <c r="Q3" s="6"/>
     </row>
     <row r="4" spans="2:24" ht="16.149999999999999" customHeight="1">
-      <c r="B4" s="61"/>
-      <c r="C4" s="61"/>
-      <c r="D4" s="61"/>
-      <c r="E4" s="61"/>
-      <c r="F4" s="61"/>
-      <c r="G4" s="61"/>
-      <c r="H4" s="61"/>
+      <c r="B4" s="60"/>
+      <c r="C4" s="60"/>
+      <c r="D4" s="60"/>
+      <c r="E4" s="60"/>
+      <c r="F4" s="60"/>
+      <c r="G4" s="60"/>
+      <c r="H4" s="60"/>
       <c r="O4" s="6"/>
       <c r="P4" s="6"/>
       <c r="Q4" s="6"/>
     </row>
     <row r="6" spans="2:24" ht="16.149999999999999" customHeight="1">
-      <c r="K6" s="60" t="s">
-        <v>35</v>
-      </c>
-      <c r="L6" s="60"/>
-      <c r="M6" s="60"/>
-      <c r="N6" s="60"/>
-      <c r="U6" s="60" t="s">
-        <v>63</v>
-      </c>
-      <c r="V6" s="60"/>
-      <c r="W6" s="60"/>
-      <c r="X6" s="60"/>
+      <c r="K6" s="59" t="s">
+        <v>28</v>
+      </c>
+      <c r="L6" s="59"/>
+      <c r="M6" s="59"/>
+      <c r="N6" s="59"/>
+      <c r="U6" s="59" t="s">
+        <v>55</v>
+      </c>
+      <c r="V6" s="59"/>
+      <c r="W6" s="59"/>
+      <c r="X6" s="59"/>
     </row>
     <row r="7" spans="2:24" ht="16.149999999999999" customHeight="1">
-      <c r="K7" s="60"/>
-      <c r="L7" s="60"/>
-      <c r="M7" s="60"/>
-      <c r="N7" s="60"/>
-      <c r="U7" s="60"/>
-      <c r="V7" s="60"/>
-      <c r="W7" s="60"/>
-      <c r="X7" s="60"/>
+      <c r="K7" s="59"/>
+      <c r="L7" s="59"/>
+      <c r="M7" s="59"/>
+      <c r="N7" s="59"/>
+      <c r="U7" s="59"/>
+      <c r="V7" s="59"/>
+      <c r="W7" s="59"/>
+      <c r="X7" s="59"/>
     </row>
     <row r="24" spans="11:25" ht="16.149999999999999" customHeight="1">
-      <c r="K24" s="59" t="s">
-        <v>36</v>
-      </c>
-      <c r="L24" s="59"/>
-      <c r="M24" s="59"/>
-      <c r="N24" s="59"/>
-      <c r="O24" s="59"/>
-      <c r="P24" s="59"/>
-      <c r="Q24" s="59"/>
-      <c r="V24" s="60" t="s">
-        <v>64</v>
-      </c>
-      <c r="W24" s="60"/>
-      <c r="X24" s="60"/>
-      <c r="Y24" s="60"/>
+      <c r="K24" s="61" t="s">
+        <v>29</v>
+      </c>
+      <c r="L24" s="61"/>
+      <c r="M24" s="61"/>
+      <c r="N24" s="61"/>
+      <c r="O24" s="61"/>
+      <c r="P24" s="61"/>
+      <c r="Q24" s="61"/>
+      <c r="V24" s="59" t="s">
+        <v>56</v>
+      </c>
+      <c r="W24" s="59"/>
+      <c r="X24" s="59"/>
+      <c r="Y24" s="59"/>
     </row>
     <row r="25" spans="11:25" ht="16.149999999999999" customHeight="1">
-      <c r="K25" s="59"/>
-      <c r="L25" s="59"/>
-      <c r="M25" s="59"/>
-      <c r="N25" s="59"/>
-      <c r="O25" s="59"/>
-      <c r="P25" s="59"/>
-      <c r="Q25" s="59"/>
-      <c r="V25" s="60"/>
-      <c r="W25" s="60"/>
-      <c r="X25" s="60"/>
-      <c r="Y25" s="60"/>
+      <c r="K25" s="61"/>
+      <c r="L25" s="61"/>
+      <c r="M25" s="61"/>
+      <c r="N25" s="61"/>
+      <c r="O25" s="61"/>
+      <c r="P25" s="61"/>
+      <c r="Q25" s="61"/>
+      <c r="V25" s="59"/>
+      <c r="W25" s="59"/>
+      <c r="X25" s="59"/>
+      <c r="Y25" s="59"/>
     </row>
     <row r="44" spans="2:60" ht="16.149999999999999" customHeight="1">
-      <c r="B44" s="61" t="s">
-        <v>31</v>
-      </c>
-      <c r="C44" s="61"/>
-      <c r="D44" s="61"/>
+      <c r="B44" s="60" t="s">
+        <v>59</v>
+      </c>
+      <c r="C44" s="60"/>
+      <c r="D44" s="60"/>
       <c r="E44" s="7"/>
       <c r="H44" s="8"/>
       <c r="I44" s="8"/>
       <c r="J44" s="8"/>
       <c r="AM44" s="5" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
     </row>
     <row r="45" spans="2:60" ht="16.149999999999999" customHeight="1">
-      <c r="B45" s="61"/>
-      <c r="C45" s="61"/>
-      <c r="D45" s="61"/>
+      <c r="B45" s="60"/>
+      <c r="C45" s="60"/>
+      <c r="D45" s="60"/>
       <c r="E45" s="7"/>
       <c r="H45" s="8"/>
       <c r="I45" s="8"/>
-      <c r="J45" s="60" t="s">
-        <v>35</v>
-      </c>
-      <c r="K45" s="60"/>
-      <c r="L45" s="60"/>
-      <c r="M45" s="60"/>
-      <c r="V45" s="60" t="s">
-        <v>63</v>
-      </c>
-      <c r="W45" s="60"/>
-      <c r="X45" s="60"/>
-      <c r="Y45" s="60"/>
+      <c r="J45" s="59" t="s">
+        <v>28</v>
+      </c>
+      <c r="K45" s="59"/>
+      <c r="L45" s="59"/>
+      <c r="M45" s="59"/>
+      <c r="V45" s="59" t="s">
+        <v>55</v>
+      </c>
+      <c r="W45" s="59"/>
+      <c r="X45" s="59"/>
+      <c r="Y45" s="59"/>
       <c r="AM45" s="5" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
     </row>
     <row r="46" spans="2:60" ht="16.149999999999999" customHeight="1">
-      <c r="J46" s="60"/>
-      <c r="K46" s="60"/>
-      <c r="L46" s="60"/>
-      <c r="M46" s="60"/>
-      <c r="V46" s="60"/>
-      <c r="W46" s="60"/>
-      <c r="X46" s="60"/>
-      <c r="Y46" s="60"/>
+      <c r="J46" s="59"/>
+      <c r="K46" s="59"/>
+      <c r="L46" s="59"/>
+      <c r="M46" s="59"/>
+      <c r="V46" s="59"/>
+      <c r="W46" s="59"/>
+      <c r="X46" s="59"/>
+      <c r="Y46" s="59"/>
       <c r="AM46" s="5" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="BH46" s="5" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
     </row>
     <row r="47" spans="2:60" ht="16.149999999999999" customHeight="1">
       <c r="AM47" s="5" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="BH47" s="5" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
     </row>
     <row r="48" spans="2:60" ht="16.149999999999999" customHeight="1">
       <c r="AM48" s="5" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="BH48" s="5" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
     </row>
     <row r="49" spans="3:60" ht="16.149999999999999" customHeight="1">
       <c r="AM49" s="5" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="BH49" s="5" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
     </row>
     <row r="50" spans="3:60" ht="16.149999999999999" customHeight="1">
       <c r="AM50" s="5" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="BH50" s="5" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
     </row>
     <row r="51" spans="3:60" ht="16.149999999999999" customHeight="1">
       <c r="AM51" s="5" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="BH51" s="5" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
     </row>
     <row r="52" spans="3:60" ht="16.149999999999999" customHeight="1">
       <c r="AM52" s="5" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="BH52" s="5" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
     </row>
     <row r="53" spans="3:60" ht="16.149999999999999" customHeight="1">
       <c r="AM53" s="5" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="BH53" s="5" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
     </row>
     <row r="54" spans="3:60" ht="16.149999999999999" customHeight="1">
       <c r="AM54" s="5" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="BH54" s="5" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
     </row>
     <row r="55" spans="3:60" ht="16.149999999999999" customHeight="1">
       <c r="BH55" s="5" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
     </row>
     <row r="56" spans="3:60" ht="16.149999999999999" customHeight="1">
       <c r="BH56" s="5" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
     </row>
     <row r="57" spans="3:60" ht="16.149999999999999" customHeight="1">
       <c r="BH57" s="5" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
     </row>
     <row r="58" spans="3:60" ht="16.149999999999999" customHeight="1">
       <c r="BH58" s="5" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
     </row>
     <row r="59" spans="3:60" ht="16.149999999999999" customHeight="1">
       <c r="BH59" s="5" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
     </row>
     <row r="60" spans="3:60" ht="16.149999999999999" customHeight="1">
       <c r="BH60" s="5" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
     </row>
     <row r="61" spans="3:60" ht="16.149999999999999" customHeight="1">
       <c r="BH61" s="5" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
     </row>
     <row r="63" spans="3:60" ht="16.149999999999999" customHeight="1">
@@ -4707,49 +4676,107 @@
       <c r="I64" s="8"/>
     </row>
     <row r="65" spans="2:26" ht="16.149999999999999" customHeight="1">
-      <c r="J65" s="59" t="s">
-        <v>36</v>
-      </c>
-      <c r="K65" s="59"/>
-      <c r="L65" s="59"/>
-      <c r="M65" s="59"/>
-      <c r="N65" s="59"/>
-      <c r="O65" s="59"/>
-      <c r="P65" s="59"/>
-      <c r="W65" s="60" t="s">
-        <v>63</v>
-      </c>
-      <c r="X65" s="60"/>
-      <c r="Y65" s="60"/>
-      <c r="Z65" s="60"/>
+      <c r="J65" s="61" t="s">
+        <v>29</v>
+      </c>
+      <c r="K65" s="61"/>
+      <c r="L65" s="61"/>
+      <c r="M65" s="61"/>
+      <c r="N65" s="61"/>
+      <c r="O65" s="61"/>
+      <c r="P65" s="61"/>
+      <c r="W65" s="59" t="s">
+        <v>55</v>
+      </c>
+      <c r="X65" s="59"/>
+      <c r="Y65" s="59"/>
+      <c r="Z65" s="59"/>
     </row>
     <row r="66" spans="2:26" ht="16.149999999999999" customHeight="1">
-      <c r="J66" s="59"/>
-      <c r="K66" s="59"/>
-      <c r="L66" s="59"/>
-      <c r="M66" s="59"/>
-      <c r="N66" s="59"/>
-      <c r="O66" s="59"/>
-      <c r="P66" s="59"/>
-      <c r="W66" s="60"/>
-      <c r="X66" s="60"/>
-      <c r="Y66" s="60"/>
-      <c r="Z66" s="60"/>
+      <c r="J66" s="61"/>
+      <c r="K66" s="61"/>
+      <c r="L66" s="61"/>
+      <c r="M66" s="61"/>
+      <c r="N66" s="61"/>
+      <c r="O66" s="61"/>
+      <c r="P66" s="61"/>
+      <c r="W66" s="59"/>
+      <c r="X66" s="59"/>
+      <c r="Y66" s="59"/>
+      <c r="Z66" s="59"/>
     </row>
     <row r="78" spans="2:26" ht="16.149999999999999" customHeight="1">
-      <c r="B78" s="61" t="s">
-        <v>32</v>
-      </c>
-      <c r="C78" s="61"/>
-      <c r="D78" s="61"/>
+      <c r="B78" s="60" t="s">
+        <v>60</v>
+      </c>
+      <c r="C78" s="60"/>
+      <c r="D78" s="60"/>
     </row>
     <row r="79" spans="2:26" ht="16.149999999999999" customHeight="1">
-      <c r="B79" s="61"/>
-      <c r="C79" s="61"/>
-      <c r="D79" s="61"/>
+      <c r="B79" s="60"/>
+      <c r="C79" s="60"/>
+      <c r="D79" s="60"/>
+    </row>
+    <row r="81" spans="2:18" ht="16.149999999999999" customHeight="1">
+      <c r="B81" s="59" t="s">
+        <v>28</v>
+      </c>
+      <c r="C81" s="59"/>
+      <c r="D81" s="59"/>
+      <c r="E81" s="59"/>
+      <c r="O81" s="59" t="s">
+        <v>55</v>
+      </c>
+      <c r="P81" s="59"/>
+      <c r="Q81" s="59"/>
+      <c r="R81" s="59"/>
+    </row>
+    <row r="82" spans="2:18" ht="16.149999999999999" customHeight="1">
+      <c r="B82" s="59"/>
+      <c r="C82" s="59"/>
+      <c r="D82" s="59"/>
+      <c r="E82" s="59"/>
+      <c r="O82" s="59"/>
+      <c r="P82" s="59"/>
+      <c r="Q82" s="59"/>
+      <c r="R82" s="59"/>
+    </row>
+    <row r="99" spans="2:18" ht="16.149999999999999" customHeight="1">
+      <c r="B99" s="61" t="s">
+        <v>29</v>
+      </c>
+      <c r="C99" s="61"/>
+      <c r="D99" s="61"/>
+      <c r="E99" s="61"/>
+      <c r="F99" s="61"/>
+      <c r="G99" s="61"/>
+      <c r="H99" s="61"/>
+      <c r="O99" s="59" t="s">
+        <v>55</v>
+      </c>
+      <c r="P99" s="59"/>
+      <c r="Q99" s="59"/>
+      <c r="R99" s="59"/>
+    </row>
+    <row r="100" spans="2:18" ht="16.149999999999999" customHeight="1">
+      <c r="B100" s="61"/>
+      <c r="C100" s="61"/>
+      <c r="D100" s="61"/>
+      <c r="E100" s="61"/>
+      <c r="F100" s="61"/>
+      <c r="G100" s="61"/>
+      <c r="H100" s="61"/>
+      <c r="O100" s="59"/>
+      <c r="P100" s="59"/>
+      <c r="Q100" s="59"/>
+      <c r="R100" s="59"/>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="15">
+    <mergeCell ref="B81:E82"/>
+    <mergeCell ref="O81:R82"/>
+    <mergeCell ref="B99:H100"/>
+    <mergeCell ref="O99:R100"/>
     <mergeCell ref="J65:P66"/>
     <mergeCell ref="W65:Z66"/>
     <mergeCell ref="B78:D79"/>
